--- a/content/teaching/presentations/SocResearchMethods_CourseTimeline_20230829.xlsx
+++ b/content/teaching/presentations/SocResearchMethods_CourseTimeline_20230829.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hendrix-my.sharepoint.com/personal/axxe_hendrix_edu/Documents/Teaching/ResearchMethods/Fall2023/Syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{2A7E455A-3AA2-6D4F-84AD-4275253661D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21DDDDB1-5253-1240-8438-E1115BAE4C9E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{2A7E455A-3AA2-6D4F-84AD-4275253661D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49784B4B-F3E1-8C42-843C-0EFF7E1D5786}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="500" windowWidth="36840" windowHeight="21100" xr2:uid="{E2ADA13B-633C-DA4D-A77F-2F9069A7E416}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{E2ADA13B-633C-DA4D-A77F-2F9069A7E416}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -395,34 +395,7 @@
     <t>Week 11: R - review &amp; implementation</t>
   </si>
   <si>
-    <t>Write a research question</t>
-  </si>
-  <si>
-    <t>Prepare lit review</t>
-  </si>
-  <si>
-    <t>Connect question to method</t>
-  </si>
-  <si>
     <t>Firebaugh (2007), chapter 1</t>
-  </si>
-  <si>
-    <t>Draft interview guides</t>
-  </si>
-  <si>
-    <t>Draft survey Qs</t>
-  </si>
-  <si>
-    <t>Submit R script</t>
-  </si>
-  <si>
-    <t>Describe analytic decisions</t>
-  </si>
-  <si>
-    <t>Draft results</t>
-  </si>
-  <si>
-    <t>Cover how to find datasets / read documentation</t>
   </si>
 </sst>
 </file>
@@ -827,10 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,37 +809,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -884,11 +851,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,14 +881,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -953,7 +922,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1059,7 +1028,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1201,7 +1170,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1209,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6C3E2B-D4FA-6C44-9724-C151325BB6F7}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F33" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1194,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1242,8 +1211,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:7" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="2">
@@ -1257,8 +1226,8 @@
       </c>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:8" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+    <row r="3" spans="1:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
       <c r="B3" s="2">
         <v>45163</v>
       </c>
@@ -1272,8 +1241,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+    <row r="4" spans="1:7" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
       <c r="B4" s="2">
         <v>45166</v>
       </c>
@@ -1285,8 +1254,8 @@
       </c>
       <c r="E4" s="43"/>
     </row>
-    <row r="5" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+    <row r="5" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
       <c r="B5" s="2">
         <v>45168</v>
       </c>
@@ -1297,10 +1266,9 @@
         <v>72</v>
       </c>
       <c r="E5" s="45"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+    </row>
+    <row r="6" spans="1:7" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
       <c r="B6" s="2">
         <v>45170</v>
       </c>
@@ -1314,8 +1282,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
       <c r="B7" s="2">
         <v>45173</v>
       </c>
@@ -1325,28 +1293,28 @@
       <c r="D7" s="28"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="53">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="69"/>
+      <c r="B8" s="54">
         <v>45175</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="66" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57"/>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="45"/>
     </row>
-    <row r="10" spans="1:8" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+    <row r="10" spans="1:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
       <c r="B10" s="2">
         <v>45177</v>
       </c>
@@ -1359,10 +1327,10 @@
       <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
       <c r="B11" s="2">
         <v>45180</v>
       </c>
@@ -1374,8 +1342,8 @@
       </c>
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+    <row r="12" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
       <c r="B12" s="2">
         <v>45182</v>
       </c>
@@ -1387,32 +1355,32 @@
       </c>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="53">
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
+      <c r="B13" s="54">
         <v>45184</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="50"/>
+    <row r="14" spans="1:7" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:7" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
@@ -1426,8 +1394,8 @@
       </c>
       <c r="E15" s="43"/>
     </row>
-    <row r="16" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+    <row r="16" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
       <c r="B16" s="2">
         <v>45189</v>
       </c>
@@ -1435,13 +1403,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16" s="44"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
       <c r="B17" s="2">
         <v>45191</v>
       </c>
@@ -1452,52 +1420,49 @@
       <c r="E17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="53">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="54">
         <v>45194</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="59" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="44"/>
     </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="63"/>
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61">
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="49">
         <v>45196</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="44"/>
     </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="50"/>
+    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="45"/>
     </row>
-    <row r="22" spans="1:6" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:5" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
       <c r="B22" s="2">
         <v>45198</v>
       </c>
@@ -1508,12 +1473,9 @@
       <c r="E22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+    </row>
+    <row r="23" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
       <c r="B23" s="2">
         <v>45201</v>
       </c>
@@ -1525,8 +1487,8 @@
       </c>
       <c r="E23" s="43"/>
     </row>
-    <row r="24" spans="1:6" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+    <row r="24" spans="1:5" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
       <c r="B24" s="2">
         <v>45203</v>
       </c>
@@ -1538,55 +1500,52 @@
       </c>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="53">
+    <row r="25" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="54">
         <v>45205</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="52"/>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="22"/>
       <c r="E26" s="41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="54">
         <v>45208</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="59" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="43"/>
     </row>
-    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="63"/>
+    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="44"/>
     </row>
-    <row r="29" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+    <row r="29" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
       <c r="B29" s="2">
         <v>45210</v>
       </c>
@@ -1597,12 +1556,9 @@
       <c r="E29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+    </row>
+    <row r="30" spans="1:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
       <c r="B30" s="2">
         <v>45212</v>
       </c>
@@ -1612,12 +1568,12 @@
       <c r="D30" s="30"/>
       <c r="E30" s="44"/>
     </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="53">
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="54">
         <v>45215</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -1625,89 +1581,83 @@
       </c>
       <c r="E31" s="44"/>
     </row>
-    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="52"/>
+    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="25" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="44"/>
     </row>
-    <row r="33" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="53">
+    <row r="33" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="54">
         <v>45217</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="59" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="63"/>
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="45"/>
     </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="53">
+    <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="54">
         <v>45219</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="65"/>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="53">
+    <row r="37" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="54">
         <v>45222</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="59" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="43"/>
-      <c r="F37" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="63"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="44"/>
     </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="53">
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="61"/>
+      <c r="B39" s="54">
         <v>45224</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="57" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="23" t="s">
@@ -1715,26 +1665,26 @@
       </c>
       <c r="E39" s="44"/>
     </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="68"/>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="38" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="44"/>
     </row>
-    <row r="41" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="69"/>
+    <row r="41" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E41" s="44"/>
     </row>
-    <row r="42" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
       <c r="B42" s="10">
         <v>45226</v>
       </c>
@@ -1745,16 +1695,13 @@
       <c r="E42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61">
+    </row>
+    <row r="43" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="49">
         <v>45229</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -1762,21 +1709,21 @@
       </c>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="52"/>
+    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="37" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="44"/>
     </row>
-    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
-      <c r="B45" s="53">
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="B45" s="54">
         <v>45231</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="50" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="23" t="s">
@@ -1784,42 +1731,39 @@
       </c>
       <c r="E45" s="44"/>
     </row>
-    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
+    <row r="46" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E46" s="45"/>
     </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="53">
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="61"/>
+      <c r="B47" s="54">
         <v>45233</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="64" t="s">
         <v>103</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="67"/>
+    </row>
+    <row r="48" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="24"/>
       <c r="E48" s="42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="2">
@@ -1833,8 +1777,8 @@
       </c>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:6" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
+    <row r="50" spans="1:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="61"/>
       <c r="B50" s="2">
         <v>45238</v>
       </c>
@@ -1845,12 +1789,9 @@
       <c r="E50" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
+    </row>
+    <row r="51" spans="1:5" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
       <c r="B51" s="2">
         <v>45240</v>
       </c>
@@ -1862,8 +1803,8 @@
       </c>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:6" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
+    <row r="52" spans="1:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
       <c r="B52" s="2">
         <v>45243</v>
       </c>
@@ -1875,8 +1816,8 @@
       </c>
       <c r="E52" s="44"/>
     </row>
-    <row r="53" spans="1:6" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
+    <row r="53" spans="1:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
       <c r="B53" s="2">
         <v>45245</v>
       </c>
@@ -1888,33 +1829,30 @@
       </c>
       <c r="E53" s="45"/>
     </row>
-    <row r="54" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
-      <c r="B54" s="53">
+    <row r="54" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="61"/>
+      <c r="B54" s="54">
         <v>45247</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="50" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="52"/>
+    </row>
+    <row r="55" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="22"/>
       <c r="E55" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
+    <row r="56" spans="1:5" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
       <c r="B56" s="2">
         <v>45250</v>
       </c>
@@ -1923,8 +1861,8 @@
       </c>
       <c r="E56" s="44"/>
     </row>
-    <row r="57" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
+    <row r="57" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
       <c r="B57" s="13" t="s">
         <v>4</v>
       </c>
@@ -1934,8 +1872,8 @@
       <c r="D57" s="31"/>
       <c r="E57" s="44"/>
     </row>
-    <row r="58" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
+    <row r="58" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
       <c r="B58" s="2">
         <v>45257</v>
       </c>
@@ -1944,8 +1882,8 @@
       </c>
       <c r="E58" s="44"/>
     </row>
-    <row r="59" spans="1:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
+    <row r="59" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
       <c r="B59" s="2">
         <v>45259</v>
       </c>
@@ -1955,8 +1893,8 @@
       <c r="D59" s="13"/>
       <c r="E59" s="44"/>
     </row>
-    <row r="60" spans="1:6" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+    <row r="60" spans="1:5" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="2">
@@ -1968,8 +1906,8 @@
       <c r="D60" s="48"/>
       <c r="E60" s="44"/>
     </row>
-    <row r="61" spans="1:6" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+    <row r="61" spans="1:5" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56"/>
       <c r="B61" s="10">
         <v>45271</v>
       </c>
@@ -1989,16 +1927,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -2015,22 +1959,16 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D40" r:id="rId1" xr:uid="{9E62A47A-4528-C049-A8BB-484DE379F950}"/>
